--- a/wksp_grnd/res/elementos220.xlsx
+++ b/wksp_grnd/res/elementos220.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_grnd\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D8027-B394-41A9-9014-32E254181E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F7801-15F4-4E02-832C-FD7E0C446F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{60CEC630-20DA-48BA-871C-1CBBDEAC003E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="1000" activeTab="3" xr2:uid="{60CEC630-20DA-48BA-871C-1CBBDEAC003E}"/>
   </bookViews>
   <sheets>
     <sheet name="AP" sheetId="2" r:id="rId1"/>
     <sheet name="DESCT_T" sheetId="9" r:id="rId2"/>
-    <sheet name="DESCT" sheetId="8" r:id="rId3"/>
-    <sheet name="INTERRUPTOR" sheetId="10" r:id="rId4"/>
+    <sheet name="TP" sheetId="11" r:id="rId3"/>
+    <sheet name="TP SSAA" sheetId="13" r:id="rId4"/>
+    <sheet name="DESCT" sheetId="8" r:id="rId5"/>
+    <sheet name="INTERRUPTOR" sheetId="10" r:id="rId6"/>
+    <sheet name="PR" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="45">
   <si>
     <t>-</t>
   </si>
@@ -105,6 +108,75 @@
   </si>
   <si>
     <t>2/0 AWG</t>
+  </si>
+  <si>
+    <t>BANCODUCTO</t>
+  </si>
+  <si>
+    <t>ESCALERILLA</t>
+  </si>
+  <si>
+    <t>CAMARA</t>
+  </si>
+  <si>
+    <t>EQUIPO</t>
+  </si>
+  <si>
+    <t>TRANSFORMADOR_OTROS</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>(89)(.){3,4}(t)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>(89)(.){3,5}[^t]</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Aislador de Pedestal</t>
+  </si>
+  <si>
+    <t>Desconectador con Puesta a Tierra</t>
+  </si>
+  <si>
+    <t>Interruptor</t>
+  </si>
+  <si>
+    <t>Pararrayos</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>Desconectador</t>
+  </si>
+  <si>
+    <t>tp ssaa</t>
+  </si>
+  <si>
+    <t>Transformador de Potencial</t>
+  </si>
+  <si>
+    <t>(tp)([a-z]{1,2})([0-9]{1})(-)?</t>
+  </si>
+  <si>
+    <t>Transformador de Potencial SSAA</t>
   </si>
 </sst>
 </file>
@@ -133,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,21 +228,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,715 +612,1896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64206EE-03C9-4E00-9047-268E1C89059A}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <f>2.3+1.2+1.6</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9FF15A-1D9B-44CA-8E5D-4F6E34CD8E5E}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="4" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5"/>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <f>4.1+4.1+0.9+0.85+1.4+3.9</f>
         <v>15.25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
         <f>4+3</f>
         <v>7</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1"/>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32310235-EB32-40D9-83B1-34B5D50042BB}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708EC0E2-57D1-4FEB-86B8-832110C0FD6F}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10.35</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDFDDE6-A4B1-47C0-A863-1EDBCA8CB083}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451F458-7D9F-48B7-B1E5-D176E6B987FA}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32310235-EB32-40D9-83B1-34B5D50042BB}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDFDDE6-A4B1-47C0-A863-1EDBCA8CB083}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.88</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D640845-C7F9-4693-BC0C-B7766946B1FE}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>